--- a/Data/Transitions/19291931Translation.xlsx
+++ b/Data/Transitions/19291931Translation.xlsx
@@ -106,7 +106,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.0014045075103535124}</t>
+    <t>{46.0: 1.0, 246.0: 0.0014045099541301804}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9977833604255948}</t>
+    <t>{86.0: 0.9977641973468475}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -205,7 +205,7 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9996668959460804}</t>
+    <t>{91.0: 0.9996710680889056}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 86.0: 0.0022166395744052016}</t>
+    <t>{107.0: 1.0, 86.0: 0.0022358026531524816}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -415,7 +415,7 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{217.0: 0.9946335737045111}</t>
+    <t>{217.0: 0.9945955075156223}</t>
   </si>
   <si>
     <t>{218.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{227.0: 1.0}</t>
   </si>
   <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -481,13 +481,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9970726498500526}</t>
+    <t>{246.0: 0.9970743847093252}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -574,7 +577,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9602417730020147}</t>
+    <t>{277.0: 0.9600539811066127}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -601,7 +604,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.04610555228565823}</t>
+    <t>{286.0: 1.0, 909.0: 0.047051756932625886}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -685,7 +688,7 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
@@ -700,9 +703,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -1063,7 +1063,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9989628512162927}</t>
+    <t>{593.0: 0.9989665539270951}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1075,10 +1075,10 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 1.0, 599.0: 0.007421875}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.992578125}</t>
+    <t>{598.0: 1.0, 599.0: 0.007639726578206675}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9923602734217933}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{737.0: 1.0}</t>
   </si>
   <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
@@ -1453,7 +1453,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 1.0, 246.0: 0.0015228426395939086}</t>
+    <t>{789.0: 1.0, 246.0: 0.0015211053365445557}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1513,7 +1513,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 1.0, 277.0: 0.03975822699798522}</t>
+    <t>{850.0: 1.0, 277.0: 0.039946018893387315}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1522,7 +1522,7 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646}</t>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1603,7 +1603,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.9538944477143417}</t>
+    <t>{909.0: 0.9529482430673741}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1684,7 +1684,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 593.0: 0.0010371487837073355}</t>
+    <t>{937.0: 1.0, 593.0: 0.001033446072904923}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
   </si>
   <si>
     <t>{139.0: 0.3506731946144431}</t>
@@ -1720,7 +1720,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
+    <t>{975.0: 0.9970151317640227}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1813,7 +1813,7 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 0.9156799425905993, 909.0: 0.0843200574094008}</t>
+    <t>{286.0: 0.9161163662323755, 909.0: 0.08388363376762449}</t>
   </si>
   <si>
     <t>{306.0: 0.9617261904761905, 142.0: 0.03827380952380952}</t>
@@ -1885,7 +1885,7 @@
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9963624338624338, 593.0: 0.0036375661375661374}</t>
+    <t>{937.0: 0.9963648380700595, 593.0: 0.0036351619299405153}</t>
   </si>
   <si>
     <t>{971.0: 0.9941116231438812, 975.0: 0.005888376856118792}</t>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3962,29 +3962,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>594</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>594</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4039,29 +4039,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>595</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>595</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4160,40 +4160,40 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>596</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>597</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4281,29 +4281,29 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>598</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>187</v>
+        <v>598</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4380,29 +4380,29 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>599</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>599</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4600,29 +4600,29 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>600</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>216</v>
+        <v>600</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4688,29 +4688,29 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>601</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>224</v>
+        <v>601</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
